--- a/teaching/traditional_assets/database/data/sweden/sweden_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,110 +590,110 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.08795</v>
+      </c>
+      <c r="E2">
+        <v>0.004300000000000012</v>
+      </c>
       <c r="G2">
-        <v>0.0003139427516158818</v>
+        <v>0.0003724736930015033</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001550335502461151</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001231561946637764</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>198.39</v>
+        <v>127.8</v>
       </c>
       <c r="L2">
-        <v>0.3053093259464451</v>
+        <v>0.213462502087857</v>
       </c>
       <c r="M2">
-        <v>83.5</v>
+        <v>41.63</v>
       </c>
       <c r="N2">
-        <v>0.04319039983447991</v>
+        <v>0.02789466630930046</v>
       </c>
       <c r="O2">
-        <v>0.4208881496043147</v>
+        <v>0.3257433489827856</v>
       </c>
       <c r="P2">
-        <v>73.3</v>
+        <v>40.2</v>
       </c>
       <c r="Q2">
-        <v>0.03791444680080691</v>
+        <v>0.02693647815599035</v>
       </c>
       <c r="R2">
-        <v>0.3694742678562427</v>
+        <v>0.3145539906103286</v>
       </c>
       <c r="S2">
-        <v>10.2</v>
+        <v>1.43</v>
       </c>
       <c r="T2">
-        <v>0.1221556886227545</v>
+        <v>0.03435022820081671</v>
       </c>
       <c r="U2">
-        <v>674.6999999999999</v>
+        <v>532.4</v>
       </c>
       <c r="V2">
-        <v>0.348988775668546</v>
+        <v>0.3567408201554543</v>
       </c>
       <c r="W2">
-        <v>0.138900372054568</v>
+        <v>0.09405231931489444</v>
       </c>
       <c r="X2">
-        <v>0.03110615136642795</v>
+        <v>0.02496830015975293</v>
       </c>
       <c r="Y2">
-        <v>0.1077942206881401</v>
+        <v>0.06908401915514151</v>
       </c>
       <c r="Z2">
-        <v>0.2450177314753312</v>
+        <v>0.2435026640094359</v>
       </c>
       <c r="AA2">
-        <v>0.0001614611986340244</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0282970014730901</v>
+        <v>0.0209625367197816</v>
       </c>
       <c r="AC2">
-        <v>-0.0282970014730901</v>
+        <v>-0.0209625367197816</v>
       </c>
       <c r="AD2">
-        <v>1800.2</v>
+        <v>1568.7</v>
       </c>
       <c r="AE2">
-        <v>31.01295995250372</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1831.212959952504</v>
+        <v>1568.7</v>
       </c>
       <c r="AG2">
-        <v>1156.512959952504</v>
+        <v>1036.3</v>
       </c>
       <c r="AH2">
-        <v>0.486440870155912</v>
+        <v>0.5124628401554996</v>
       </c>
       <c r="AI2">
-        <v>0.5862671240462372</v>
+        <v>0.5200053038087977</v>
       </c>
       <c r="AJ2">
-        <v>0.3742986954039709</v>
+        <v>0.4098153201249654</v>
       </c>
       <c r="AK2">
-        <v>0.4722749262054441</v>
+        <v>0.4171396369198567</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>249.6809986130374</v>
-      </c>
-      <c r="AP2">
-        <v>160.4040166369631</v>
       </c>
     </row>
     <row r="3">
@@ -712,6 +712,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.083</v>
+      </c>
+      <c r="E3">
+        <v>0.108</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -719,103 +725,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002479106054471554</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001907719337357248</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>123.2</v>
+        <v>116.4</v>
       </c>
       <c r="L3">
-        <v>0.4010416666666667</v>
+        <v>0.3708187320802804</v>
       </c>
       <c r="M3">
-        <v>73.3</v>
+        <v>41.63</v>
       </c>
       <c r="N3">
-        <v>0.05679528901286224</v>
+        <v>0.03798704261337713</v>
       </c>
       <c r="O3">
-        <v>0.5949675324675324</v>
+        <v>0.3576460481099656</v>
       </c>
       <c r="P3">
-        <v>73.3</v>
+        <v>40.2</v>
       </c>
       <c r="Q3">
-        <v>0.05679528901286224</v>
+        <v>0.03668217903093348</v>
       </c>
       <c r="R3">
-        <v>0.5949675324675324</v>
+        <v>0.345360824742268</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.03435022820081671</v>
       </c>
       <c r="U3">
-        <v>519.8</v>
+        <v>532.4</v>
       </c>
       <c r="V3">
-        <v>0.4027584069425074</v>
+        <v>0.4858107491559448</v>
       </c>
       <c r="W3">
-        <v>0.1693238042880704</v>
+        <v>0.1648725212464589</v>
       </c>
       <c r="X3">
-        <v>0.03110615136642795</v>
+        <v>0.02173741790406666</v>
       </c>
       <c r="Y3">
-        <v>0.1382176529216424</v>
+        <v>0.1431351033423923</v>
       </c>
       <c r="Z3">
-        <v>0.236965345311023</v>
+        <v>0.2973382589750876</v>
       </c>
       <c r="AA3">
-        <v>0.0004520633715333763</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02750175553305327</v>
+        <v>0.01884756420890493</v>
       </c>
       <c r="AC3">
-        <v>-0.02704969216151989</v>
+        <v>-0.01884756420890493</v>
       </c>
       <c r="AD3">
-        <v>859.7</v>
+        <v>843.1</v>
       </c>
       <c r="AE3">
-        <v>11.99209310033169</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>871.6920931003317</v>
+        <v>843.1</v>
       </c>
       <c r="AG3">
-        <v>351.8920931003317</v>
+        <v>310.7</v>
       </c>
       <c r="AH3">
-        <v>0.4031333675417018</v>
+        <v>0.4348117586384734</v>
       </c>
       <c r="AI3">
-        <v>0.5525109093925702</v>
+        <v>0.4926376066378403</v>
       </c>
       <c r="AJ3">
-        <v>0.2142427927528759</v>
+        <v>0.2208872458410351</v>
       </c>
       <c r="AK3">
-        <v>0.3326351481359998</v>
+        <v>0.2635284139100934</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>272.0569620253165</v>
-      </c>
-      <c r="AP3">
-        <v>111.3582573102316</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Avida Holding AB (OTCNO:AVIDA)</t>
+          <t>Hoist Finance AB (publ) (OM:HOFI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -834,8 +834,14 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.0929</v>
+      </c>
+      <c r="E4">
+        <v>-0.09939999999999999</v>
+      </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007830056179775281</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -847,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.99</v>
+        <v>11.4</v>
       </c>
       <c r="L4">
-        <v>0.2250704225352113</v>
+        <v>0.04002808988764045</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,183 +880,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>154.9</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.9433617539585872</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0982779827798278</v>
+        <v>0.02323211738332994</v>
       </c>
       <c r="X4">
-        <v>0.02802719539234187</v>
+        <v>0.0281991824154392</v>
       </c>
       <c r="Y4">
-        <v>0.07025078738748593</v>
+        <v>-0.004967065032109259</v>
       </c>
       <c r="Z4">
-        <v>0.4440830622967226</v>
+        <v>0.2029935851746258</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0282970014730901</v>
+        <v>0.02307750923065827</v>
       </c>
       <c r="AC4">
-        <v>-0.0282970014730901</v>
+        <v>-0.02307750923065827</v>
       </c>
       <c r="AD4">
-        <v>28.2</v>
+        <v>725.6</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>28.2</v>
+        <v>725.6</v>
       </c>
       <c r="AG4">
-        <v>-126.7</v>
+        <v>725.6</v>
       </c>
       <c r="AH4">
-        <v>0.1465696465696466</v>
+        <v>0.6466446840745033</v>
       </c>
       <c r="AI4">
-        <v>0.2277867528271406</v>
+        <v>0.5558875354324676</v>
       </c>
       <c r="AJ4">
-        <v>-3.378666666666668</v>
+        <v>0.6466446840745033</v>
       </c>
       <c r="AK4">
-        <v>4.073954983922828</v>
+        <v>0.5558875354324676</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hoist Finance AB (publ) (OM:HOFI)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>0.0006642787365678931</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.0008004774652087085</v>
-      </c>
-      <c r="J5">
-        <v>0.0006707242601250026</v>
-      </c>
-      <c r="K5">
-        <v>67.2</v>
-      </c>
-      <c r="L5">
-        <v>0.2188212308694236</v>
-      </c>
-      <c r="M5">
-        <v>10.2</v>
-      </c>
-      <c r="N5">
-        <v>0.02131661442006269</v>
-      </c>
-      <c r="O5">
-        <v>0.1517857142857143</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>-0</v>
-      </c>
-      <c r="S5">
-        <v>10.2</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.138900372054568</v>
-      </c>
-      <c r="X5">
-        <v>0.03887525885224279</v>
-      </c>
-      <c r="Y5">
-        <v>0.1000251132023252</v>
-      </c>
-      <c r="Z5">
-        <v>0.2407266416812371</v>
-      </c>
-      <c r="AA5">
-        <v>0.0001614611986340244</v>
-      </c>
-      <c r="AB5">
-        <v>0.03095204140669054</v>
-      </c>
-      <c r="AC5">
-        <v>-0.03079058020805651</v>
-      </c>
-      <c r="AD5">
-        <v>912.3</v>
-      </c>
-      <c r="AE5">
-        <v>19.02086685217203</v>
-      </c>
-      <c r="AF5">
-        <v>931.320866852172</v>
-      </c>
-      <c r="AG5">
-        <v>931.320866852172</v>
-      </c>
-      <c r="AH5">
-        <v>0.660595178259499</v>
-      </c>
-      <c r="AI5">
-        <v>0.6549277078568979</v>
-      </c>
-      <c r="AJ5">
-        <v>0.660595178259499</v>
-      </c>
-      <c r="AK5">
-        <v>0.6549277078568979</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>225.2592592592593</v>
-      </c>
-      <c r="AP5">
-        <v>229.9557695931289</v>
       </c>
     </row>
   </sheetData>
